--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3190.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3190.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.226046878338288</v>
+        <v>1.005100846290588</v>
       </c>
       <c r="B1">
-        <v>2.385616469229576</v>
+        <v>1.915569067001343</v>
       </c>
       <c r="C1">
-        <v>7.671493981552293</v>
+        <v>2.906126737594604</v>
       </c>
       <c r="D1">
-        <v>2.850155154709243</v>
+        <v>3.558630466461182</v>
       </c>
       <c r="E1">
-        <v>1.380262619153145</v>
+        <v>1.974258065223694</v>
       </c>
     </row>
   </sheetData>
